--- a/test artefacts/bug report/bug report.xlsx
+++ b/test artefacts/bug report/bug report.xlsx
@@ -125,7 +125,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +136,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,14 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -218,13 +227,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +551,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -541,7 +559,7 @@
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" style="1"/>
@@ -580,178 +598,178 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="69.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="69.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="69.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="69.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="134.25" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
@@ -1741,12 +1759,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I3:I7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
